--- a/yong/미세먼지 측정소별 교통량2015~.xlsx
+++ b/yong/미세먼지 측정소별 교통량2015~.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>미세먼지 측정소 명</t>
   </si>
@@ -1298,18 +1298,6 @@
   </si>
   <si>
     <t>강남구 밤고개로 337 (세곡사거리)</t>
-  </si>
-  <si>
-    <t>2008유입</t>
-  </si>
-  <si>
-    <t>2008유출</t>
-  </si>
-  <si>
-    <t>2009유입</t>
-  </si>
-  <si>
-    <t>2009유출</t>
   </si>
   <si>
     <t>2015양방</t>
@@ -1334,11 +1322,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="###,###"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1539,22 +1526,9 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2263,44 +2237,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" xfId="130" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2736,10 +2695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2748,1579 +2707,1155 @@
     <col min="2" max="2" width="69.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
-        <v>1710.8</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1019.1428571428571</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1548</v>
-      </c>
-      <c r="F2" s="2">
-        <v>751</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="C2" s="7">
         <v>54444</v>
       </c>
-      <c r="H2" s="10">
+      <c r="D2" s="7">
         <v>55553</v>
       </c>
-      <c r="I2" s="10">
+      <c r="E2" s="7">
         <v>53835</v>
       </c>
-      <c r="J2" s="10">
+      <c r="F2" s="7">
         <v>51168</v>
       </c>
-      <c r="K2" s="10">
+      <c r="G2" s="7">
         <v>49602</v>
       </c>
-      <c r="L2" s="10">
+      <c r="H2" s="7">
         <v>46063</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
-        <v>1643.2857142857142</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1607.7142857142858</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1577</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1582</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="C3" s="7">
         <v>70234</v>
       </c>
-      <c r="H3" s="10">
+      <c r="D3" s="7">
         <v>73397</v>
       </c>
-      <c r="I3" s="10">
+      <c r="E3" s="7">
         <v>69223</v>
       </c>
-      <c r="J3" s="10">
+      <c r="F3" s="7">
         <v>46469</v>
       </c>
-      <c r="K3" s="10">
+      <c r="G3" s="7">
         <v>46327</v>
       </c>
-      <c r="L3" s="10">
+      <c r="H3" s="7">
         <v>42628</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="10">
+      <c r="C4" s="7">
         <v>159656</v>
       </c>
-      <c r="H4" s="10">
+      <c r="D4" s="7">
         <v>150919</v>
       </c>
-      <c r="I4" s="10">
+      <c r="E4" s="7">
         <v>146317</v>
       </c>
-      <c r="J4" s="10">
+      <c r="F4" s="7">
         <v>142332</v>
       </c>
-      <c r="K4" s="10">
+      <c r="G4" s="7">
         <v>143081</v>
       </c>
-      <c r="L4" s="10">
+      <c r="H4" s="7">
         <v>137834</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
-        <v>1282.8571428571429</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1992.1428571428571</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1464</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1395</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="C5" s="7">
         <v>60936</v>
       </c>
-      <c r="H5" s="10">
+      <c r="D5" s="7">
         <v>64337</v>
       </c>
-      <c r="I5" s="10">
+      <c r="E5" s="7">
         <v>56616</v>
       </c>
-      <c r="J5" s="10">
+      <c r="F5" s="7">
         <v>53223</v>
       </c>
-      <c r="K5" s="10">
+      <c r="G5" s="7">
         <v>53583</v>
       </c>
-      <c r="L5" s="10">
+      <c r="H5" s="7">
         <v>52449</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11">
-        <v>1118</v>
-      </c>
-      <c r="D6" s="11">
-        <v>816.28571428571433</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1926</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1952</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="C6" s="7">
         <v>46836</v>
       </c>
-      <c r="H6" s="10">
+      <c r="D6" s="7">
         <v>46726</v>
       </c>
-      <c r="I6" s="10">
+      <c r="E6" s="7">
         <v>46352</v>
       </c>
-      <c r="J6" s="10">
+      <c r="F6" s="7">
         <v>46704</v>
       </c>
-      <c r="K6" s="10">
+      <c r="G6" s="7">
         <v>45876</v>
       </c>
-      <c r="L6" s="10">
+      <c r="H6" s="7">
         <v>43895</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
-        <v>2827.5714285714284</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2693.2857142857142</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2840</v>
-      </c>
-      <c r="F7" s="12">
-        <v>2765</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="C7" s="7">
         <v>135991</v>
       </c>
-      <c r="H7" s="10">
+      <c r="D7" s="7">
         <v>141548</v>
       </c>
-      <c r="I7" s="10">
+      <c r="E7" s="7">
         <v>146329</v>
       </c>
-      <c r="J7" s="10">
+      <c r="F7" s="7">
         <v>149152</v>
       </c>
-      <c r="K7" s="10">
+      <c r="G7" s="7">
         <v>142617</v>
       </c>
-      <c r="L7" s="10">
+      <c r="H7" s="7">
         <v>142394</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11">
-        <v>1543.8571428571429</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1651.7142857142858</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1537</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1634</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="C8" s="7">
         <v>114579</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="10">
+      <c r="D8" s="2"/>
+      <c r="E8" s="7">
         <v>87205</v>
       </c>
-      <c r="J8" s="10">
+      <c r="F8" s="7">
         <v>66191</v>
       </c>
-      <c r="K8" s="10">
+      <c r="G8" s="7">
         <v>65726</v>
       </c>
-      <c r="L8" s="10">
+      <c r="H8" s="7">
         <v>58539</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11">
-        <v>2823.7142857142858</v>
-      </c>
-      <c r="D9" s="11">
-        <v>2878</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2682</v>
-      </c>
-      <c r="F9" s="12">
-        <v>2856</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="C9" s="7">
         <v>84463</v>
       </c>
-      <c r="H9" s="10">
+      <c r="D9" s="7">
         <v>103001</v>
       </c>
-      <c r="I9" s="10">
+      <c r="E9" s="7">
         <v>114621</v>
       </c>
-      <c r="J9" s="10">
+      <c r="F9" s="7">
         <v>91084</v>
       </c>
-      <c r="K9" s="10">
+      <c r="G9" s="7">
         <v>89433</v>
       </c>
-      <c r="L9" s="10">
+      <c r="H9" s="7">
         <v>84243</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11">
-        <v>417.14285714285717</v>
-      </c>
-      <c r="D10" s="11">
-        <v>446.42857142857144</v>
-      </c>
-      <c r="E10" s="3">
-        <v>428</v>
-      </c>
-      <c r="F10" s="12">
-        <v>437</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="C10" s="7">
         <v>20779</v>
       </c>
-      <c r="H10" s="10">
+      <c r="D10" s="7">
         <v>19310</v>
       </c>
-      <c r="I10" s="10">
+      <c r="E10" s="7">
         <v>19627</v>
       </c>
-      <c r="J10" s="10">
+      <c r="F10" s="7">
         <v>18411</v>
       </c>
-      <c r="K10" s="10">
+      <c r="G10" s="7">
         <v>17197</v>
       </c>
-      <c r="L10" s="10">
+      <c r="H10" s="7">
         <v>16389</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11">
-        <v>1716.7142857142858</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1705</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1414</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1485</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="C11" s="7">
         <v>91286</v>
       </c>
-      <c r="H11" s="10">
+      <c r="D11" s="7">
         <v>84746</v>
       </c>
-      <c r="I11" s="10">
+      <c r="E11" s="7">
         <v>82727</v>
       </c>
-      <c r="J11" s="10">
+      <c r="F11" s="7">
         <v>75537</v>
       </c>
-      <c r="K11" s="10">
+      <c r="G11" s="7">
         <v>73987</v>
       </c>
-      <c r="L11" s="10">
+      <c r="H11" s="7">
         <v>68434</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
         <v>41467</v>
       </c>
-      <c r="I12" s="10">
+      <c r="E12" s="7">
         <v>34162</v>
       </c>
-      <c r="J12" s="10">
+      <c r="F12" s="7">
         <v>34356</v>
       </c>
-      <c r="K12" s="10">
+      <c r="G12" s="7">
         <v>34147</v>
       </c>
-      <c r="L12" s="10">
+      <c r="H12" s="7">
         <v>31826</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11">
-        <v>2149.8571428571427</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1728.4285714285713</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2472</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1745</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="C13" s="7">
         <v>93392</v>
       </c>
-      <c r="H13" s="10">
+      <c r="D13" s="7">
         <v>90244</v>
       </c>
-      <c r="I13" s="10">
+      <c r="E13" s="7">
         <v>91174</v>
       </c>
-      <c r="J13" s="10">
+      <c r="F13" s="7">
         <v>83197</v>
       </c>
-      <c r="K13" s="10">
+      <c r="G13" s="7">
         <v>83221</v>
       </c>
-      <c r="L13" s="10">
+      <c r="H13" s="7">
         <v>69362</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11">
-        <v>1109.5714285714287</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1322.8571428571429</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="10">
+      <c r="C14" s="2"/>
+      <c r="D14" s="7">
         <v>52021</v>
       </c>
-      <c r="I14" s="10">
+      <c r="E14" s="7">
         <v>53892</v>
       </c>
-      <c r="J14" s="10">
+      <c r="F14" s="7">
         <v>47962</v>
       </c>
-      <c r="K14" s="10">
+      <c r="G14" s="7">
         <v>46769</v>
       </c>
-      <c r="L14" s="10">
+      <c r="H14" s="7">
         <v>44897</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="11">
-        <v>1866.1428571428571</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1745.4285714285713</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1862</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1711</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="C15" s="7">
         <v>63133</v>
       </c>
-      <c r="H15" s="10">
+      <c r="D15" s="7">
         <v>64003</v>
       </c>
-      <c r="I15" s="10">
+      <c r="E15" s="7">
         <v>61797</v>
       </c>
-      <c r="J15" s="10">
+      <c r="F15" s="7">
         <v>59831</v>
       </c>
-      <c r="K15" s="10">
+      <c r="G15" s="7">
         <v>60188</v>
       </c>
-      <c r="L15" s="10">
+      <c r="H15" s="7">
         <v>57141</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11">
-        <v>1417</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1582.8571428571429</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="10">
+      <c r="C16" s="7">
         <v>73918</v>
       </c>
-      <c r="H16" s="10">
+      <c r="D16" s="7">
         <v>73876</v>
       </c>
-      <c r="I16" s="10">
+      <c r="E16" s="7">
         <v>70399</v>
       </c>
-      <c r="J16" s="10">
+      <c r="F16" s="7">
         <v>69174</v>
       </c>
-      <c r="K16" s="10">
+      <c r="G16" s="7">
         <v>70070</v>
       </c>
-      <c r="L16" s="10">
+      <c r="H16" s="7">
         <v>63920</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="11">
-        <v>1896.4285714285713</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1306.2857142857142</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1958</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1306</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="C17" s="7">
         <v>72910</v>
       </c>
-      <c r="H17" s="10">
+      <c r="D17" s="7">
         <v>69530</v>
       </c>
-      <c r="I17" s="10">
+      <c r="E17" s="7">
         <v>70678</v>
       </c>
-      <c r="J17" s="10">
+      <c r="F17" s="7">
         <v>67865</v>
       </c>
-      <c r="K17" s="10">
+      <c r="G17" s="7">
         <v>68804</v>
       </c>
-      <c r="L17" s="10">
+      <c r="H17" s="7">
         <v>68782</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="10">
+      <c r="C18" s="7">
         <v>257657</v>
       </c>
-      <c r="H18" s="10">
+      <c r="D18" s="7">
         <v>257720</v>
       </c>
-      <c r="I18" s="10">
+      <c r="E18" s="7">
         <v>251982</v>
       </c>
-      <c r="J18" s="10">
+      <c r="F18" s="7">
         <v>245296</v>
       </c>
-      <c r="K18" s="10">
+      <c r="G18" s="7">
         <v>241143</v>
       </c>
-      <c r="L18" s="10">
+      <c r="H18" s="7">
         <v>230067</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="11">
-        <v>1109.5714285714287</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1322.8571428571429</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="10">
+      <c r="C19" s="2"/>
+      <c r="D19" s="7">
         <v>52021</v>
       </c>
-      <c r="I19" s="10">
+      <c r="E19" s="7">
         <v>53892</v>
       </c>
-      <c r="J19" s="10">
+      <c r="F19" s="7">
         <v>47962</v>
       </c>
-      <c r="K19" s="10">
+      <c r="G19" s="7">
         <v>46769</v>
       </c>
-      <c r="L19" s="10">
+      <c r="H19" s="7">
         <v>44897</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="11">
-        <v>2015.8571428571429</v>
-      </c>
-      <c r="D20" s="11">
-        <v>2027.5714285714287</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1926</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1952</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="C20" s="7">
         <v>71918</v>
       </c>
-      <c r="H20" s="10">
+      <c r="D20" s="7">
         <v>70112</v>
       </c>
-      <c r="I20" s="10">
+      <c r="E20" s="7">
         <v>66437</v>
       </c>
-      <c r="J20" s="10">
+      <c r="F20" s="7">
         <v>67131</v>
       </c>
-      <c r="K20" s="10">
+      <c r="G20" s="7">
         <v>67917</v>
       </c>
-      <c r="L20" s="10">
+      <c r="H20" s="7">
         <v>66820</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="11">
-        <v>2074.4285714285702</v>
-      </c>
-      <c r="D21" s="11">
-        <v>2251.7142857142858</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="10">
+      <c r="C21" s="7">
         <v>73006</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="10">
+      <c r="D21" s="2"/>
+      <c r="E21" s="7">
         <v>83401</v>
       </c>
-      <c r="J21" s="10">
+      <c r="F21" s="7">
         <v>79366</v>
       </c>
-      <c r="K21" s="10">
+      <c r="G21" s="7">
         <v>77602</v>
       </c>
-      <c r="L21" s="10">
+      <c r="H21" s="7">
         <v>72929</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="11">
-        <v>1654.1428571428571</v>
-      </c>
-      <c r="D22" s="11">
-        <v>2019</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1954</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2199</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="C22" s="7">
         <v>107837</v>
       </c>
-      <c r="H22" s="10">
+      <c r="D22" s="7">
         <v>105208</v>
       </c>
-      <c r="I22" s="10">
+      <c r="E22" s="7">
         <v>97375</v>
       </c>
-      <c r="J22" s="10">
+      <c r="F22" s="7">
         <v>92933</v>
       </c>
-      <c r="K22" s="10">
+      <c r="G22" s="7">
         <v>91268</v>
       </c>
-      <c r="L22" s="10">
+      <c r="H22" s="7">
         <v>86362</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="11">
-        <v>1123.7142857142858</v>
-      </c>
-      <c r="D23" s="11">
-        <v>922.28571428571433</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1109</v>
-      </c>
-      <c r="F23" s="5">
-        <v>872</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="C23" s="7">
         <v>43914</v>
       </c>
-      <c r="H23" s="10">
+      <c r="D23" s="7">
         <v>43412</v>
       </c>
-      <c r="I23" s="10">
+      <c r="E23" s="7">
         <v>41244</v>
       </c>
-      <c r="J23" s="10">
+      <c r="F23" s="7">
         <v>39923</v>
       </c>
-      <c r="K23" s="10">
+      <c r="G23" s="7">
         <v>39662</v>
       </c>
-      <c r="L23" s="10">
+      <c r="H23" s="7">
         <v>38216</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="11">
-        <v>3252</v>
-      </c>
-      <c r="D24" s="11">
-        <v>3515</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3247</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3439</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="C24" s="7">
         <v>155907</v>
       </c>
-      <c r="H24" s="10">
+      <c r="D24" s="7">
         <v>154745</v>
       </c>
-      <c r="I24" s="10">
+      <c r="E24" s="7">
         <v>140932</v>
       </c>
-      <c r="J24" s="10">
+      <c r="F24" s="7">
         <v>139487</v>
       </c>
-      <c r="K24" s="10">
+      <c r="G24" s="7">
         <v>138940</v>
       </c>
-      <c r="L24" s="10">
+      <c r="H24" s="7">
         <v>137139</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="11">
-        <v>1377.2857142857142</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1434.1428571428571</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1384</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1449</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="C25" s="7">
         <v>65505</v>
       </c>
-      <c r="H25" s="10">
+      <c r="D25" s="7">
         <v>66147</v>
       </c>
-      <c r="I25" s="10">
+      <c r="E25" s="7">
         <v>60743</v>
       </c>
-      <c r="J25" s="10">
+      <c r="F25" s="7">
         <v>60525</v>
       </c>
-      <c r="K25" s="10">
+      <c r="G25" s="7">
         <v>60395</v>
       </c>
-      <c r="L25" s="10">
+      <c r="H25" s="7">
         <v>57983</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="11">
-        <v>1785.2857142857142</v>
-      </c>
-      <c r="D26" s="11">
-        <v>2487.5714285714284</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
         <v>44916</v>
       </c>
-      <c r="J26" s="10">
+      <c r="F26" s="7">
         <v>44400</v>
       </c>
-      <c r="K26" s="10">
+      <c r="G26" s="7">
         <v>42237</v>
       </c>
-      <c r="L26" s="10">
+      <c r="H26" s="7">
         <v>38770</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="10">
+      <c r="C27" s="7">
         <v>232851</v>
       </c>
-      <c r="H27" s="10">
+      <c r="D27" s="7">
         <v>230081</v>
       </c>
-      <c r="I27" s="10">
+      <c r="E27" s="7">
         <v>192316</v>
       </c>
-      <c r="J27" s="10">
+      <c r="F27" s="7">
         <v>192632</v>
       </c>
-      <c r="K27" s="10">
+      <c r="G27" s="7">
         <v>196830</v>
       </c>
-      <c r="L27" s="10">
+      <c r="H27" s="7">
         <v>187760</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="10">
+      <c r="C28" s="7">
         <v>139449</v>
       </c>
-      <c r="H28" s="10">
+      <c r="D28" s="7">
         <v>137025</v>
       </c>
-      <c r="I28" s="10">
+      <c r="E28" s="7">
         <v>137607</v>
       </c>
-      <c r="J28" s="10">
+      <c r="F28" s="7">
         <v>132669</v>
       </c>
-      <c r="K28" s="10">
+      <c r="G28" s="7">
         <v>137001</v>
       </c>
-      <c r="L28" s="10">
+      <c r="H28" s="7">
         <v>128113</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="11">
-        <v>812</v>
-      </c>
-      <c r="D29" s="11">
-        <v>932</v>
-      </c>
-      <c r="E29" s="3">
-        <v>856</v>
-      </c>
-      <c r="F29" s="3">
-        <v>966</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="C29" s="7">
         <v>43368</v>
       </c>
-      <c r="H29" s="10">
+      <c r="D29" s="7">
         <v>39875</v>
       </c>
-      <c r="I29" s="10">
+      <c r="E29" s="7">
         <v>26359</v>
       </c>
-      <c r="J29" s="10">
+      <c r="F29" s="7">
         <v>26125</v>
       </c>
-      <c r="K29" s="10">
+      <c r="G29" s="7">
         <v>26221</v>
       </c>
-      <c r="L29" s="10">
+      <c r="H29" s="7">
         <v>23627</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="10">
+      <c r="C30" s="7">
         <v>112848</v>
       </c>
-      <c r="H30" s="10">
+      <c r="D30" s="7">
         <v>112226</v>
       </c>
-      <c r="I30" s="10">
+      <c r="E30" s="7">
         <v>102260</v>
       </c>
-      <c r="J30" s="10">
+      <c r="F30" s="7">
         <v>76324</v>
       </c>
-      <c r="K30" s="10">
+      <c r="G30" s="7">
         <v>74310</v>
       </c>
-      <c r="L30" s="10">
+      <c r="H30" s="7">
         <v>69076</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="11">
-        <v>1976.2857142857142</v>
-      </c>
-      <c r="D31" s="11">
-        <v>1905.1428571428571</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1882</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1841</v>
-      </c>
-      <c r="G31" s="10">
+      <c r="C31" s="7">
         <v>84463</v>
       </c>
-      <c r="H31" s="10">
+      <c r="D31" s="7">
         <v>103001</v>
       </c>
-      <c r="I31" s="10">
+      <c r="E31" s="7">
         <v>114621</v>
       </c>
-      <c r="J31" s="10">
+      <c r="F31" s="7">
         <v>91084</v>
       </c>
-      <c r="K31" s="10">
+      <c r="G31" s="7">
         <v>89433</v>
       </c>
-      <c r="L31" s="10">
+      <c r="H31" s="7">
         <v>84243</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="11">
-        <v>2074.4285714285716</v>
-      </c>
-      <c r="D32" s="11">
-        <v>2251.7142857142858</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="10">
+      <c r="C32" s="7">
         <v>73006</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="10">
+      <c r="D32" s="2"/>
+      <c r="E32" s="7">
         <v>88054</v>
       </c>
-      <c r="J32" s="10">
+      <c r="F32" s="7">
         <v>85063</v>
       </c>
-      <c r="K32" s="10">
+      <c r="G32" s="7">
         <v>83254</v>
       </c>
-      <c r="L32" s="10">
+      <c r="H32" s="7">
         <v>79212</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="10">
+      <c r="C33" s="7">
         <v>88861</v>
       </c>
-      <c r="H33" s="10">
+      <c r="D33" s="7">
         <v>85283</v>
       </c>
-      <c r="I33" s="10">
+      <c r="E33" s="7">
         <v>83139</v>
       </c>
-      <c r="J33" s="10">
+      <c r="F33" s="7">
         <v>81827</v>
       </c>
-      <c r="K33" s="10">
+      <c r="G33" s="7">
         <v>81920</v>
       </c>
-      <c r="L33" s="10">
+      <c r="H33" s="7">
         <v>75286</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="11">
-        <v>1543.8571428571429</v>
-      </c>
-      <c r="D34" s="11">
-        <v>1651.7142857142858</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="10">
+      <c r="C34" s="7">
         <v>73402</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="10">
+      <c r="D34" s="2"/>
+      <c r="E34" s="7">
         <v>95127</v>
       </c>
-      <c r="J34" s="10">
+      <c r="F34" s="7">
         <v>94691</v>
       </c>
-      <c r="K34" s="10">
+      <c r="G34" s="7">
         <v>94686</v>
       </c>
-      <c r="L34" s="10">
+      <c r="H34" s="7">
         <v>89962</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="10">
+      <c r="C35" s="7">
         <v>63133</v>
       </c>
-      <c r="H35" s="10">
+      <c r="D35" s="7">
         <v>64003</v>
       </c>
-      <c r="I35" s="10">
+      <c r="E35" s="7">
         <v>61797</v>
       </c>
-      <c r="J35" s="10">
+      <c r="F35" s="7">
         <v>59831</v>
       </c>
-      <c r="K35" s="10">
+      <c r="G35" s="7">
         <v>60188</v>
       </c>
-      <c r="L35" s="10">
+      <c r="H35" s="7">
         <v>57141</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="11">
-        <v>1643.2857142857142</v>
-      </c>
-      <c r="D36" s="11">
-        <v>1607.7142857142858</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1577</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1582</v>
-      </c>
-      <c r="G36" s="10">
+      <c r="C36" s="7">
         <v>70234</v>
       </c>
-      <c r="H36" s="10">
+      <c r="D36" s="7">
         <v>73397</v>
       </c>
-      <c r="I36" s="10">
+      <c r="E36" s="7">
         <v>69224</v>
       </c>
-      <c r="J36" s="10">
+      <c r="F36" s="7">
         <v>46469</v>
       </c>
-      <c r="K36" s="10">
+      <c r="G36" s="7">
         <v>46327</v>
       </c>
-      <c r="L36" s="10">
+      <c r="H36" s="7">
         <v>42628</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="11">
-        <v>2149.8571428571427</v>
-      </c>
-      <c r="D37" s="11">
-        <v>1728.4285714285713</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2472</v>
-      </c>
-      <c r="F37" s="12">
-        <v>1745</v>
-      </c>
-      <c r="G37" s="10">
+      <c r="C37" s="7">
         <v>93392</v>
       </c>
-      <c r="H37" s="10">
+      <c r="D37" s="7">
         <v>90244</v>
       </c>
-      <c r="I37" s="10">
+      <c r="E37" s="7">
         <v>91174</v>
       </c>
-      <c r="J37" s="10">
+      <c r="F37" s="7">
         <v>83197</v>
       </c>
-      <c r="K37" s="10">
+      <c r="G37" s="7">
         <v>83221</v>
       </c>
-      <c r="L37" s="10">
+      <c r="H37" s="7">
         <v>69362</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="11">
-        <v>1643.2857142857142</v>
-      </c>
-      <c r="D38" s="11">
-        <v>1607.7142857142858</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1577</v>
-      </c>
-      <c r="F38" s="5">
-        <v>1582</v>
-      </c>
-      <c r="G38" s="10">
+      <c r="C38" s="7">
         <v>70234</v>
       </c>
-      <c r="H38" s="10">
+      <c r="D38" s="7">
         <v>73397</v>
       </c>
-      <c r="I38" s="10">
+      <c r="E38" s="7">
         <v>69224</v>
       </c>
-      <c r="J38" s="10">
+      <c r="F38" s="7">
         <v>46469</v>
       </c>
-      <c r="K38" s="10">
+      <c r="G38" s="7">
         <v>46327</v>
       </c>
-      <c r="L38" s="10">
+      <c r="H38" s="7">
         <v>42628</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="10">
+      <c r="C39" s="7">
         <v>104115</v>
       </c>
-      <c r="H39" s="10">
+      <c r="D39" s="7">
         <v>107910</v>
       </c>
-      <c r="I39" s="10">
+      <c r="E39" s="7">
         <v>107535</v>
       </c>
-      <c r="J39" s="10">
+      <c r="F39" s="7">
         <v>96648</v>
       </c>
-      <c r="K39" s="10">
+      <c r="G39" s="7">
         <v>96420</v>
       </c>
-      <c r="L39" s="10">
+      <c r="H39" s="7">
         <v>93107</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="11">
-        <v>927.14285714285711</v>
-      </c>
-      <c r="D40" s="11">
-        <v>937.57142857142856</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="10">
+      <c r="C40" s="7">
         <v>78406</v>
       </c>
-      <c r="H40" s="10">
+      <c r="D40" s="7">
         <v>79671</v>
       </c>
-      <c r="I40" s="10">
+      <c r="E40" s="7">
         <v>82626</v>
       </c>
-      <c r="J40" s="10">
+      <c r="F40" s="7">
         <v>68491</v>
       </c>
-      <c r="K40" s="10">
+      <c r="G40" s="7">
         <v>69384</v>
       </c>
-      <c r="L40" s="10">
+      <c r="H40" s="7">
         <v>67887</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="10">
+      <c r="C41" s="7">
         <v>0</v>
       </c>
-      <c r="H41" s="10">
+      <c r="D41" s="7">
         <v>0</v>
       </c>
-      <c r="I41" s="10">
+      <c r="E41" s="7">
         <v>0</v>
       </c>
-      <c r="J41" s="10">
+      <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="K41" s="10">
+      <c r="G41" s="7">
         <v>0</v>
       </c>
-      <c r="L41" s="10">
+      <c r="H41" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="11">
-        <v>1135.1428571428571</v>
-      </c>
-      <c r="D42" s="11">
-        <v>1348.8571428571429</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1098</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1367</v>
-      </c>
-      <c r="G42" s="10">
+      <c r="C42" s="7">
         <v>55339</v>
       </c>
-      <c r="H42" s="10">
+      <c r="D42" s="7">
         <v>42143</v>
       </c>
-      <c r="I42" s="10">
+      <c r="E42" s="7">
         <v>40076</v>
       </c>
-      <c r="J42" s="10">
+      <c r="F42" s="7">
         <v>50370</v>
       </c>
-      <c r="K42" s="10">
+      <c r="G42" s="7">
         <v>51205</v>
       </c>
-      <c r="L42" s="10">
+      <c r="H42" s="7">
         <v>47896</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="11">
-        <v>495.14285714285717</v>
-      </c>
-      <c r="D43" s="11">
-        <v>469.28571428571428</v>
-      </c>
-      <c r="E43" s="5">
-        <v>521</v>
-      </c>
-      <c r="F43" s="3">
-        <v>276</v>
-      </c>
-      <c r="G43" s="10">
+      <c r="C43" s="7">
         <v>26515</v>
       </c>
-      <c r="H43" s="10">
+      <c r="D43" s="7">
         <v>27080</v>
       </c>
-      <c r="I43" s="10">
+      <c r="E43" s="7">
         <v>26487</v>
       </c>
-      <c r="J43" s="10">
+      <c r="F43" s="7">
         <v>27261</v>
       </c>
-      <c r="K43" s="10">
+      <c r="G43" s="7">
         <v>26395</v>
       </c>
-      <c r="L43" s="10">
+      <c r="H43" s="7">
         <v>20999</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D44" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="10">
+      <c r="C44" s="7">
         <v>0</v>
       </c>
-      <c r="H44" s="10">
+      <c r="D44" s="7">
         <v>0</v>
       </c>
-      <c r="I44" s="10">
+      <c r="E44" s="7">
         <v>0</v>
       </c>
-      <c r="J44" s="10">
+      <c r="F44" s="7">
         <v>0</v>
       </c>
-      <c r="K44" s="10">
+      <c r="G44" s="7">
         <v>0</v>
       </c>
-      <c r="L44" s="10">
+      <c r="H44" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="11">
-        <v>814.85714285714289</v>
-      </c>
-      <c r="D45" s="11">
-        <v>774.71428571428567</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="10">
+      <c r="C45" s="7">
         <v>43371</v>
       </c>
-      <c r="H45" s="10">
+      <c r="D45" s="7">
         <v>67844</v>
       </c>
-      <c r="I45" s="10">
+      <c r="E45" s="7">
         <v>66462</v>
       </c>
-      <c r="J45" s="10">
+      <c r="F45" s="7">
         <v>64100</v>
       </c>
-      <c r="K45" s="10">
+      <c r="G45" s="7">
         <v>64788</v>
       </c>
-      <c r="L45" s="10">
+      <c r="H45" s="7">
         <v>62667</v>
       </c>
     </row>
@@ -4354,5 +3889,6 @@
   <sheetData/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/yong/미세먼지 측정소별 교통량2015~.xlsx
+++ b/yong/미세먼지 측정소별 교통량2015~.xlsx
@@ -2259,9 +2259,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="133">
     <cellStyle name="20% - 강조색1 2" xfId="2"/>
@@ -2697,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2899,7 +2897,9 @@
       <c r="C8" s="7">
         <v>114579</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="7">
+        <v>78448</v>
+      </c>
       <c r="E8" s="7">
         <v>87205</v>
       </c>
@@ -2998,7 +2998,9 @@
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7">
+        <v>35191.599999999999</v>
+      </c>
       <c r="D12" s="7">
         <v>41467</v>
       </c>
@@ -3048,7 +3050,9 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="7">
+        <v>49108.2</v>
+      </c>
       <c r="D14" s="7">
         <v>52021</v>
       </c>
@@ -3176,7 +3180,9 @@
       <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="7">
+        <v>49108.2</v>
+      </c>
       <c r="D19" s="7">
         <v>52021</v>
       </c>
@@ -3229,7 +3235,9 @@
       <c r="C21" s="7">
         <v>73006</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="7">
+        <v>77260.800000000003</v>
+      </c>
       <c r="E21" s="7">
         <v>83401</v>
       </c>
@@ -3354,8 +3362,12 @@
       <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="7">
+        <v>42580.75</v>
+      </c>
+      <c r="D26" s="7">
+        <v>42580.75</v>
+      </c>
       <c r="E26" s="7">
         <v>44916</v>
       </c>
@@ -3509,7 +3521,9 @@
       <c r="C32" s="7">
         <v>73006</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="7">
+        <v>81717.8</v>
+      </c>
       <c r="E32" s="7">
         <v>88054</v>
       </c>
@@ -3559,7 +3573,9 @@
       <c r="C34" s="7">
         <v>73402</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="7">
+        <v>89573.6</v>
+      </c>
       <c r="E34" s="7">
         <v>95127</v>
       </c>
